--- a/excel/classification_report_lstm.xlsx
+++ b/excel/classification_report_lstm.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8008893280632411</v>
+        <v>0.8605504587155963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7961689587426326</v>
+        <v>0.8446299934512115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7985221674876847</v>
+        <v>0.852515905147484</v>
       </c>
       <c r="E2" t="n">
         <v>6108</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6916448107905583</v>
+        <v>0.7887215140981074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6992424242424242</v>
+        <v>0.7734848484848484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6954228668299114</v>
+        <v>0.7810288774144196</v>
       </c>
       <c r="E3" t="n">
         <v>5280</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7322834645669292</v>
+        <v>0.832010582010582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7613097802671263</v>
+        <v>0.8130116329168462</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7465145754119138</v>
+        <v>0.8224013946393549</v>
       </c>
       <c r="E4" t="n">
         <v>2321</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9408207343412527</v>
+        <v>0.9664227292294447</v>
       </c>
       <c r="C5" t="n">
-        <v>0.952755905511811</v>
+        <v>0.9820647419072616</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9467507063681808</v>
+        <v>0.9741809503146019</v>
       </c>
       <c r="E5" t="n">
         <v>2286</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8313404657016992</v>
+        <v>0.9118004866180048</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8215174129353234</v>
+        <v>0.9322139303482587</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8263997497654051</v>
+        <v>0.9218942189421895</v>
       </c>
       <c r="E6" t="n">
         <v>1608</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6109921484653819</v>
+        <v>0.7913669064748201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6123032904148784</v>
+        <v>0.7868383404864091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6116470167917113</v>
+        <v>0.7890961262553802</v>
       </c>
       <c r="E7" t="n">
         <v>1398</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6470137825421133</v>
+        <v>0.6709558823529411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6158892128279884</v>
+        <v>0.7981049562682215</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6310679611650485</v>
+        <v>0.7290279627163782</v>
       </c>
       <c r="E8" t="n">
         <v>1372</v>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8081952920662598</v>
+        <v>0.9146141215106732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7789915966386555</v>
+        <v>0.9361344537815126</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7933247753530167</v>
+        <v>0.925249169435216</v>
       </c>
       <c r="E9" t="n">
         <v>1190</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7564543889845095</v>
+        <v>0.8796861377506539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7911791179117912</v>
+        <v>0.9081908190819082</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7734271887373514</v>
+        <v>0.8937112488928256</v>
       </c>
       <c r="E10" t="n">
         <v>1111</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5283842794759825</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4913705583756345</v>
+        <v>0.649746192893401</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5092056812204104</v>
+        <v>0.6922660897782585</v>
       </c>
       <c r="E11" t="n">
         <v>985</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7528636037026079</v>
+        <v>0.8382433746143116</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7528636037026079</v>
+        <v>0.8382433746143116</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7528636037026079</v>
+        <v>0.8382433746143116</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7528636037026079</v>
+        <v>0.8382433746143116</v>
       </c>
     </row>
     <row r="13">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7348018694997929</v>
+        <v>0.8356869559501565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7320728257868265</v>
+        <v>0.8424419909619878</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7332282689130634</v>
+        <v>0.8381371943536108</v>
       </c>
       <c r="E13" t="n">
         <v>23659</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7521602721080168</v>
+        <v>0.838980516409317</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7528636037026079</v>
+        <v>0.8382433746143116</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7523901616864974</v>
+        <v>0.8380912706266727</v>
       </c>
       <c r="E14" t="n">
         <v>23659</v>

--- a/excel/classification_report_lstm.xlsx
+++ b/excel/classification_report_lstm.xlsx
@@ -1,37 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\doc_classifier\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AA828F-E608-4365-96F2-0831D698DC63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>macro avg</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <t>Политика</t>
+  </si>
+  <si>
+    <t>Общество</t>
+  </si>
+  <si>
+    <t>Госэкономика</t>
+  </si>
+  <si>
+    <t>Футбол</t>
+  </si>
+  <si>
+    <t>Кино</t>
+  </si>
+  <si>
+    <t>Интернет</t>
+  </si>
+  <si>
+    <t>Бизнес</t>
+  </si>
+  <si>
+    <t>Наука</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
+    <t>Люди</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +108,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,285 +432,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>f1-score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8605504587155963</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8446299934512115</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.852515905147484</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.84243565599497805</v>
+      </c>
+      <c r="C2">
+        <v>0.87884741322855275</v>
+      </c>
+      <c r="D2">
+        <v>0.86025641025641031</v>
+      </c>
+      <c r="E2">
         <v>6108</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7887215140981074</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7734848484848484</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7810288774144196</v>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.79980750721847926</v>
+      </c>
+      <c r="C3">
+        <v>0.78693181818181823</v>
+      </c>
+      <c r="D3">
+        <v>0.79331742243436754</v>
+      </c>
+      <c r="E3">
         <v>5280</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.832010582010582</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8130116329168462</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8224013946393549</v>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.81887110362257798</v>
+      </c>
+      <c r="C4">
+        <v>0.83757001292546318</v>
+      </c>
+      <c r="D4">
+        <v>0.82811501597444104</v>
+      </c>
+      <c r="E4">
         <v>2321</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9664227292294447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9820647419072616</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9741809503146019</v>
-      </c>
-      <c r="E5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.96733992264718527</v>
+      </c>
+      <c r="C5">
+        <v>0.98468941382327213</v>
+      </c>
+      <c r="D5">
+        <v>0.97593756774333418</v>
+      </c>
+      <c r="E5">
         <v>2286</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9118004866180048</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9322139303482587</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9218942189421895</v>
-      </c>
-      <c r="E6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.9293308317698562</v>
+      </c>
+      <c r="C6">
+        <v>0.92412935323383083</v>
+      </c>
+      <c r="D6">
+        <v>0.9267227938883692</v>
+      </c>
+      <c r="E6">
         <v>1608</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.7913669064748201</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7868383404864091</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7890961262553802</v>
-      </c>
-      <c r="E7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.80525164113785563</v>
+      </c>
+      <c r="C7">
+        <v>0.78969957081545061</v>
+      </c>
+      <c r="D7">
+        <v>0.79739978331527639</v>
+      </c>
+      <c r="E7">
         <v>1398</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.6709558823529411</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7981049562682215</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7290279627163782</v>
-      </c>
-      <c r="E8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.80067001675041871</v>
+      </c>
+      <c r="C8">
+        <v>0.69679300291545188</v>
+      </c>
+      <c r="D8">
+        <v>0.74512860483242405</v>
+      </c>
+      <c r="E8">
         <v>1372</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9146141215106732</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9361344537815126</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.925249169435216</v>
-      </c>
-      <c r="E9" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.92237061769616024</v>
+      </c>
+      <c r="C9">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D9">
+        <v>0.92546063651591304</v>
+      </c>
+      <c r="E9">
         <v>1190</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8796861377506539</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9081908190819082</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8937112488928256</v>
-      </c>
-      <c r="E10" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.85619834710743803</v>
+      </c>
+      <c r="C10">
+        <v>0.93249324932493249</v>
+      </c>
+      <c r="D10">
+        <v>0.89271865575183107</v>
+      </c>
+      <c r="E10">
         <v>1111</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.649746192893401</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6922660897782585</v>
-      </c>
-      <c r="E11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.7643467643467643</v>
+      </c>
+      <c r="C11">
+        <v>0.63553299492385784</v>
+      </c>
+      <c r="D11">
+        <v>0.69401330376940118</v>
+      </c>
+      <c r="E11">
         <v>985</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8382433746143116</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8382433746143116</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8382433746143116</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8382433746143116</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8356869559501565</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8424419909619878</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8381371943536108</v>
-      </c>
-      <c r="E13" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.84665455006551416</v>
+      </c>
+      <c r="C12">
+        <v>0.84665455006551416</v>
+      </c>
+      <c r="D12">
+        <v>0.84665455006551416</v>
+      </c>
+      <c r="E12">
+        <v>0.84665455006551416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0.8506622408291713</v>
+      </c>
+      <c r="C13">
+        <v>0.83952582579440593</v>
+      </c>
+      <c r="D13">
+        <v>0.84390701944817681</v>
+      </c>
+      <c r="E13">
         <v>23659</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.838980516409317</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.8382433746143116</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.8380912706266727</v>
-      </c>
-      <c r="E14" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.84538161021027713</v>
+      </c>
+      <c r="C14">
+        <v>0.84665455006551416</v>
+      </c>
+      <c r="D14">
+        <v>0.84535160657348041</v>
+      </c>
+      <c r="E14">
         <v>23659</v>
       </c>
     </row>
